--- a/3V3_0603/557nm/BOM_JLCPCB_557nm.xlsx
+++ b/3V3_0603/557nm/BOM_JLCPCB_557nm.xlsx
@@ -110,7 +110,7 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">Global Parts</t>
+    <t xml:space="preserve">C6466138</t>
   </si>
 </sst>
 </file>
@@ -346,12 +346,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.5"/>
